--- a/biology/Botanique/Scrophularia_canina_subsp._ramosissima/Scrophularia_canina_subsp._ramosissima.xlsx
+++ b/biology/Botanique/Scrophularia_canina_subsp._ramosissima/Scrophularia_canina_subsp._ramosissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scrophularia ramosissima
 Scrophularia canina subsp. ramosissima, en français Scrofulaire très rameuse, Scrophulaire rameuse ou Scrofulaire très ramifiée, est une sous-espèce de Scrophularia canina, espèce de plantes à fleurs de la famille des Scrophulariaceae et du genre Scrophularia. Elle est endémique la région méditerranéenne.
@@ -512,16 +524,18 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier par Jean-Louis-Auguste Loiseleur-Deslongchamps en 1807, qui la considère, sous le nom binominal Scrophularia ramosissima (basionyme), comme une espèce à part entière. Paul-Victor Fournier la classe en 1937 comme une sous-espèce de Scrophularia canina, sous le nom correct Scrophularia canina subsp. ramosissima[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par Jean-Louis-Auguste Loiseleur-Deslongchamps en 1807, qui la considère, sous le nom binominal Scrophularia ramosissima (basionyme), comme une espèce à part entière. Paul-Victor Fournier la classe en 1937 comme une sous-espèce de Scrophularia canina, sous le nom correct Scrophularia canina subsp. ramosissima.
 Scrophularia canina subsp. ramosissima a pour synonymes :
-Scrophularia canina subsp. frutescens (L.) O.de Bolòs &amp; J.Vigo[2]
-Scrophularia canina subsp. ramosissima (Loisel.) Bonnier &amp; Layens, 1894[2]
-Scrophularia canina var. minoricensis Monts., 1970[1],[2]
-Scrophularia frutescens DC., 1805[1],[2]
-Scrophularia ramosissima Loisel., 1807[1],[2],[3]
-Scrophularia ramosissima subsp. minoricensis (P.Monts.) A.M.Romo, 1994[1],[2]
+Scrophularia canina subsp. frutescens (L.) O.de Bolòs &amp; J.Vigo
+Scrophularia canina subsp. ramosissima (Loisel.) Bonnier &amp; Layens, 1894
+Scrophularia canina var. minoricensis Monts., 1970,
+Scrophularia frutescens DC., 1805,
+Scrophularia ramosissima Loisel., 1807
+Scrophularia ramosissima subsp. minoricensis (P.Monts.) A.M.Romo, 1994,
 </t>
         </is>
       </c>
@@ -552,10 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace de 20–60 cm, glabre, noircissant sur le sec, à tiges cylindriques, ligneuses et très rameuses à la base. Les feuilles sont peu nombreuses, écartées, petites, oblongues-lancéolées, pennatifides ou incisées-dentées, à dents triangulaires-aiguës[4].
-Appareil reproducteur
-Les fleurs sont d'un brun rougeâtre, très petites, à un ou deux sur les pédoncules, bien plus longs que 16 calice, en panicule cylindrique presque simple, longue et nue. Le calice est à lobes suborbiculaires, étroitement scarieux. La corolle mesure 3–5 mm ; le staminode est linéaire ou nul ; les étamines sont à la fin saillantes. La capsule petite, mesurant 2–4 mm, subglobuleuse-apiculée. La floraison a lieu d'avril à juillet[4].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 20–60 cm, glabre, noircissant sur le sec, à tiges cylindriques, ligneuses et très rameuses à la base. Les feuilles sont peu nombreuses, écartées, petites, oblongues-lancéolées, pennatifides ou incisées-dentées, à dents triangulaires-aiguës.
 </t>
         </is>
       </c>
@@ -581,12 +598,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle pousse dans les sables et lieux arides du littoral méditerranéen[4]. C'est une espèce indicatrice des dunes fixées du littoral méditerranéen du Crucianellion maritimae[3]. Cet habitat se développe en situation arrière-dunaire, entre les végétations de la dune mobile à Oyat (Ammophila  arenaria subsp. australis) et les fourrés littoraux sur sable. Il se développe sur un substrat sableux meuble  semi-stabilisé, pouvant s’échauffer et devenir très sec en été, de granulométrie variable (sables fins à sables graveleux), plus ou moins enrichi en matière organique et en débris coquilliers[5].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont d'un brun rougeâtre, très petites, à un ou deux sur les pédoncules, bien plus longs que 16 calice, en panicule cylindrique presque simple, longue et nue. Le calice est à lobes suborbiculaires, étroitement scarieux. La corolle mesure 3–5 mm ; le staminode est linéaire ou nul ; les étamines sont à la fin saillantes. La capsule petite, mesurant 2–4 mm, subglobuleuse-apiculée. La floraison a lieu d'avril à juillet.
 </t>
         </is>
       </c>
@@ -612,12 +635,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente en Corse, dans le sud de la France, en Sardaigne, en Sicile, aux Baléares, au Maroc, en Algérie et en Tunisie[1]. 
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse dans les sables et lieux arides du littoral méditerranéen. C'est une espèce indicatrice des dunes fixées du littoral méditerranéen du Crucianellion maritimae. Cet habitat se développe en situation arrière-dunaire, entre les végétations de la dune mobile à Oyat (Ammophila  arenaria subsp. australis) et les fourrés littoraux sur sable. Il se développe sur un substrat sableux meuble  semi-stabilisé, pouvant s’échauffer et devenir très sec en été, de granulométrie variable (sables fins à sables graveleux), plus ou moins enrichi en matière organique et en débris coquilliers.
 </t>
         </is>
       </c>
@@ -643,12 +668,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente en Corse, dans le sud de la France, en Sardaigne, en Sicile, aux Baléares, au Maroc, en Algérie et en Tunisie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Scrophularia_canina_subsp._ramosissima</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scrophularia_canina_subsp._ramosissima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce est classée « préoccupation mineure » (LC) en France métropolitaine, mais « en danger critique d'extinction » (CR) en Provence-Alpes-Côte d'Azur[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce est classée « préoccupation mineure » (LC) en France métropolitaine, mais « en danger critique d'extinction » (CR) en Provence-Alpes-Côte d'Azur.
 </t>
         </is>
       </c>
